--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Zp3-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Zp3-Mertk.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.798756666666666</v>
+        <v>7.374758333333332</v>
       </c>
       <c r="N2">
-        <v>26.39627</v>
+        <v>22.124275</v>
       </c>
       <c r="O2">
-        <v>0.3278753542842912</v>
+        <v>0.2902113952021427</v>
       </c>
       <c r="P2">
-        <v>0.3278753542842912</v>
+        <v>0.2902113952021427</v>
       </c>
       <c r="Q2">
-        <v>0.767415824791111</v>
+        <v>0.6432165888222221</v>
       </c>
       <c r="R2">
-        <v>6.906742423119999</v>
+        <v>5.7889492994</v>
       </c>
       <c r="S2">
-        <v>0.3278753542842912</v>
+        <v>0.2902113952021427</v>
       </c>
       <c r="T2">
-        <v>0.3278753542842912</v>
+        <v>0.2902113952021427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>5.443887</v>
       </c>
       <c r="O3">
-        <v>0.06762002278384967</v>
+        <v>0.07140925709849509</v>
       </c>
       <c r="P3">
-        <v>0.06762002278384967</v>
+        <v>0.07140925709849508</v>
       </c>
       <c r="Q3">
         <v>0.1582695218746667</v>
@@ -632,10 +632,10 @@
         <v>1.424425696872</v>
       </c>
       <c r="S3">
-        <v>0.06762002278384967</v>
+        <v>0.07140925709849509</v>
       </c>
       <c r="T3">
-        <v>0.06762002278384967</v>
+        <v>0.07140925709849508</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>48.66687</v>
       </c>
       <c r="O4">
-        <v>0.6045046229318591</v>
+        <v>0.6383793476993622</v>
       </c>
       <c r="P4">
-        <v>0.6045046229318591</v>
+        <v>0.6383793476993621</v>
       </c>
       <c r="Q4">
         <v>1.41488650408</v>
@@ -694,10 +694,10 @@
         <v>12.73397853672</v>
       </c>
       <c r="S4">
-        <v>0.6045046229318591</v>
+        <v>0.6383793476993622</v>
       </c>
       <c r="T4">
-        <v>0.6045046229318591</v>
+        <v>0.6383793476993621</v>
       </c>
     </row>
   </sheetData>
